--- a/user-data/depth-of-extreme-poverty-190/depth-of-extreme-poverty-190.xlsx
+++ b/user-data/depth-of-extreme-poverty-190/depth-of-extreme-poverty-190.xlsx
@@ -1054,13 +1054,13 @@
     <t xml:space="preserve">Description: Depth of extreme poverty (also known as the poverty gap) tells us how far people are from the extreme poverty line, on average per country. Data is for 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: From World Bank PovCalNet, representing the average gap for the whole population of each country, with those above the extreme poverty line counted as having a zero gap.</t>
+    <t xml:space="preserve">Description: From World Bank PovCalNet, representing the average gap for the whole population of each country, with those above the extreme poverty line counted as having a zero gap. 2013 represents the most recent year data is available</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: c(15, 61)</t>
+    <t xml:space="preserve">Source: c(16, 62)</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: c(3, 3)</t>

--- a/user-data/depth-of-extreme-poverty-190/depth-of-extreme-poverty-190.xlsx
+++ b/user-data/depth-of-extreme-poverty-190/depth-of-extreme-poverty-190.xlsx
@@ -1060,7 +1060,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: c(16, 62)</t>
+    <t xml:space="preserve">Source: c(16, 63)</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: c(3, 3)</t>

--- a/user-data/depth-of-extreme-poverty-190/depth-of-extreme-poverty-190.xlsx
+++ b/user-data/depth-of-extreme-poverty-190/depth-of-extreme-poverty-190.xlsx
@@ -1054,13 +1054,13 @@
     <t xml:space="preserve">Description: Depth of extreme poverty (also known as the poverty gap) tells us how far people are from the extreme poverty line, on average per country. Data is for 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: From World Bank PovCalNet, representing the average gap for the whole population of each country, with those above the extreme poverty line counted as having a zero gap.</t>
+    <t xml:space="preserve">Description: From World Bank PovCalNet, representing the average gap for the whole population of each country, with those above the extreme poverty line counted as having a zero gap. 2013 represents the most recent year data is available</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: c(15, 61)</t>
+    <t xml:space="preserve">Source: c(16, 63)</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: c(3, 3)</t>
